--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H2">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I2">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J2">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.0621151135608</v>
+        <v>10.0639455</v>
       </c>
       <c r="N2">
-        <v>10.0621151135608</v>
+        <v>20.127891</v>
       </c>
       <c r="O2">
-        <v>0.1992633942288312</v>
+        <v>0.1841073870690167</v>
       </c>
       <c r="P2">
-        <v>0.1992633942288312</v>
+        <v>0.1533044232183457</v>
       </c>
       <c r="Q2">
-        <v>89.02841231746504</v>
+        <v>97.67849630669023</v>
       </c>
       <c r="R2">
-        <v>89.02841231746504</v>
+        <v>390.7139852267609</v>
       </c>
       <c r="S2">
-        <v>0.07439876526244463</v>
+        <v>0.06677502019840501</v>
       </c>
       <c r="T2">
-        <v>0.07439876526244463</v>
+        <v>0.04631939325114046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H3">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I3">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J3">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.25849539957401</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N3">
-        <v>5.25849539957401</v>
+        <v>16.668628</v>
       </c>
       <c r="O3">
-        <v>0.1041357239536693</v>
+        <v>0.1016439509105532</v>
       </c>
       <c r="P3">
-        <v>0.1041357239536693</v>
+        <v>0.1269568879015276</v>
       </c>
       <c r="Q3">
-        <v>46.5265494698854</v>
+        <v>53.92737598243132</v>
       </c>
       <c r="R3">
-        <v>46.5265494698854</v>
+        <v>323.5642558945879</v>
       </c>
       <c r="S3">
-        <v>0.03888104642524847</v>
+        <v>0.03686585847070611</v>
       </c>
       <c r="T3">
-        <v>0.03888104642524847</v>
+        <v>0.03835874982078206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H4">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I4">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J4">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.01262011233509</v>
+        <v>3.038619333333333</v>
       </c>
       <c r="N4">
-        <v>3.01262011233509</v>
+        <v>9.115857999999999</v>
       </c>
       <c r="O4">
-        <v>0.05965991268544488</v>
+        <v>0.05558776781505795</v>
       </c>
       <c r="P4">
-        <v>0.05965991268544488</v>
+        <v>0.06943108708360662</v>
       </c>
       <c r="Q4">
-        <v>26.65530879838464</v>
+        <v>29.49218746548633</v>
       </c>
       <c r="R4">
-        <v>26.65530879838464</v>
+        <v>176.953124792918</v>
       </c>
       <c r="S4">
-        <v>0.02227515925160397</v>
+        <v>0.02016146325102787</v>
       </c>
       <c r="T4">
-        <v>0.02227515925160397</v>
+        <v>0.02097790630541246</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H5">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I5">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J5">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.5750933366117</v>
+        <v>3.676304</v>
       </c>
       <c r="N5">
-        <v>3.5750933366117</v>
+        <v>11.028912</v>
       </c>
       <c r="O5">
-        <v>0.07079875601681765</v>
+        <v>0.06725341701337455</v>
       </c>
       <c r="P5">
-        <v>0.07079875601681765</v>
+        <v>0.08400189532454698</v>
       </c>
       <c r="Q5">
-        <v>31.6320058012786</v>
+        <v>35.681418056792</v>
       </c>
       <c r="R5">
-        <v>31.6320058012786</v>
+        <v>214.088508340752</v>
       </c>
       <c r="S5">
-        <v>0.02643405754555887</v>
+        <v>0.02439254801762163</v>
       </c>
       <c r="T5">
-        <v>0.02643405754555887</v>
+        <v>0.02538032981499264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H6">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I6">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J6">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.68159340202098</v>
+        <v>9.695570333333334</v>
       </c>
       <c r="N6">
-        <v>8.68159340202098</v>
+        <v>29.086711</v>
       </c>
       <c r="O6">
-        <v>0.1719244660866474</v>
+        <v>0.1773684207862488</v>
       </c>
       <c r="P6">
-        <v>0.1719244660866474</v>
+        <v>0.2215394277112148</v>
       </c>
       <c r="Q6">
-        <v>76.8137184125485</v>
+        <v>94.10312595549684</v>
       </c>
       <c r="R6">
-        <v>76.8137184125485</v>
+        <v>564.618755732981</v>
       </c>
       <c r="S6">
-        <v>0.0641912582326217</v>
+        <v>0.06433082381491333</v>
       </c>
       <c r="T6">
-        <v>0.0641912582326217</v>
+        <v>0.06693591520300229</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H7">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I7">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J7">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.9066384759812</v>
+        <v>22.6328045</v>
       </c>
       <c r="N7">
-        <v>19.9066384759812</v>
+        <v>45.265609</v>
       </c>
       <c r="O7">
-        <v>0.3942177470285897</v>
+        <v>0.4140390564057488</v>
       </c>
       <c r="P7">
-        <v>0.3942177470285897</v>
+        <v>0.3447662787607582</v>
       </c>
       <c r="Q7">
-        <v>176.1315983858983</v>
+        <v>219.6691457404347</v>
       </c>
       <c r="R7">
-        <v>176.1315983858983</v>
+        <v>878.6765829617389</v>
       </c>
       <c r="S7">
-        <v>0.1471886682296924</v>
+        <v>0.1501703261046129</v>
       </c>
       <c r="T7">
-        <v>0.1471886682296924</v>
+        <v>0.1041676718153612</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.61269008750774</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H8">
-        <v>3.61269008750774</v>
+        <v>14.961619</v>
       </c>
       <c r="I8">
-        <v>0.1524507497854908</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J8">
-        <v>0.1524507497854908</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.0621151135608</v>
+        <v>10.0639455</v>
       </c>
       <c r="N8">
-        <v>10.0621151135608</v>
+        <v>20.127891</v>
       </c>
       <c r="O8">
-        <v>0.1992633942288312</v>
+        <v>0.1841073870690167</v>
       </c>
       <c r="P8">
-        <v>0.1992633942288312</v>
+        <v>0.1533044232183457</v>
       </c>
       <c r="Q8">
-        <v>36.35130353012292</v>
+        <v>50.1909727359215</v>
       </c>
       <c r="R8">
-        <v>36.35130353012292</v>
+        <v>301.145836415529</v>
       </c>
       <c r="S8">
-        <v>0.03037785385498714</v>
+        <v>0.03431157670257051</v>
       </c>
       <c r="T8">
-        <v>0.03037785385498714</v>
+        <v>0.03570103182966154</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.61269008750774</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H9">
-        <v>3.61269008750774</v>
+        <v>14.961619</v>
       </c>
       <c r="I9">
-        <v>0.1524507497854908</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J9">
-        <v>0.1524507497854908</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.25849539957401</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N9">
-        <v>5.25849539957401</v>
+        <v>16.668628</v>
       </c>
       <c r="O9">
-        <v>0.1041357239536693</v>
+        <v>0.1016439509105532</v>
       </c>
       <c r="P9">
-        <v>0.1041357239536693</v>
+        <v>0.1269568879015276</v>
       </c>
       <c r="Q9">
-        <v>18.99731420524608</v>
+        <v>27.70996237652578</v>
       </c>
       <c r="R9">
-        <v>18.99731420524608</v>
+        <v>249.389661388732</v>
       </c>
       <c r="S9">
-        <v>0.01587556919619177</v>
+        <v>0.01894309768631049</v>
       </c>
       <c r="T9">
-        <v>0.01587556919619177</v>
+        <v>0.02956530412375482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.61269008750774</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H10">
-        <v>3.61269008750774</v>
+        <v>14.961619</v>
       </c>
       <c r="I10">
-        <v>0.1524507497854908</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J10">
-        <v>0.1524507497854908</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.01262011233509</v>
+        <v>3.038619333333333</v>
       </c>
       <c r="N10">
-        <v>3.01262011233509</v>
+        <v>9.115857999999999</v>
       </c>
       <c r="O10">
-        <v>0.05965991268544488</v>
+        <v>0.05558776781505795</v>
       </c>
       <c r="P10">
-        <v>0.05965991268544488</v>
+        <v>0.06943108708360662</v>
       </c>
       <c r="Q10">
-        <v>10.88366281725943</v>
+        <v>15.15422158378911</v>
       </c>
       <c r="R10">
-        <v>10.88366281725943</v>
+        <v>136.387994254102</v>
       </c>
       <c r="S10">
-        <v>0.009095198421032983</v>
+        <v>0.01035973618155825</v>
       </c>
       <c r="T10">
-        <v>0.009095198421032983</v>
+        <v>0.01616888409285776</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.61269008750774</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H11">
-        <v>3.61269008750774</v>
+        <v>14.961619</v>
       </c>
       <c r="I11">
-        <v>0.1524507497854908</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J11">
-        <v>0.1524507497854908</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.5750933366117</v>
+        <v>3.676304</v>
       </c>
       <c r="N11">
-        <v>3.5750933366117</v>
+        <v>11.028912</v>
       </c>
       <c r="O11">
-        <v>0.07079875601681765</v>
+        <v>0.06725341701337455</v>
       </c>
       <c r="P11">
-        <v>0.07079875601681765</v>
+        <v>0.08400189532454698</v>
       </c>
       <c r="Q11">
-        <v>12.91570425909206</v>
+        <v>18.33448659205867</v>
       </c>
       <c r="R11">
-        <v>12.91570425909206</v>
+        <v>165.010379328528</v>
       </c>
       <c r="S11">
-        <v>0.01079332343864388</v>
+        <v>0.01253383046221452</v>
       </c>
       <c r="T11">
-        <v>0.01079332343864388</v>
+        <v>0.01956208617974611</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.61269008750774</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H12">
-        <v>3.61269008750774</v>
+        <v>14.961619</v>
       </c>
       <c r="I12">
-        <v>0.1524507497854908</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J12">
-        <v>0.1524507497854908</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.68159340202098</v>
+        <v>9.695570333333334</v>
       </c>
       <c r="N12">
-        <v>8.68159340202098</v>
+        <v>29.086711</v>
       </c>
       <c r="O12">
-        <v>0.1719244660866474</v>
+        <v>0.1773684207862488</v>
       </c>
       <c r="P12">
-        <v>0.1719244660866474</v>
+        <v>0.2215394277112148</v>
       </c>
       <c r="Q12">
-        <v>31.36390642725379</v>
+        <v>48.35380977167879</v>
       </c>
       <c r="R12">
-        <v>31.36390642725379</v>
+        <v>435.184287945109</v>
       </c>
       <c r="S12">
-        <v>0.02621001376137957</v>
+        <v>0.03305565448136955</v>
       </c>
       <c r="T12">
-        <v>0.02621001376137957</v>
+        <v>0.05159137612734323</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.61269008750774</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H13">
-        <v>3.61269008750774</v>
+        <v>14.961619</v>
       </c>
       <c r="I13">
-        <v>0.1524507497854908</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J13">
-        <v>0.1524507497854908</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.9066384759812</v>
+        <v>22.6328045</v>
       </c>
       <c r="N13">
-        <v>19.9066384759812</v>
+        <v>45.265609</v>
       </c>
       <c r="O13">
-        <v>0.3942177470285897</v>
+        <v>0.4140390564057488</v>
       </c>
       <c r="P13">
-        <v>0.3942177470285897</v>
+        <v>0.3447662787607582</v>
       </c>
       <c r="Q13">
-        <v>71.91651549777747</v>
+        <v>112.8744659434952</v>
       </c>
       <c r="R13">
-        <v>71.91651549777747</v>
+        <v>677.246795660971</v>
       </c>
       <c r="S13">
-        <v>0.06009879111325542</v>
+        <v>0.07716329620386289</v>
       </c>
       <c r="T13">
-        <v>0.06009879111325542</v>
+        <v>0.08028804148919597</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.50697010378191</v>
+        <v>5.739525</v>
       </c>
       <c r="H14">
-        <v>5.50697010378191</v>
+        <v>17.218575</v>
       </c>
       <c r="I14">
-        <v>0.2323868643676</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J14">
-        <v>0.2323868643676</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.0621151135608</v>
+        <v>10.0639455</v>
       </c>
       <c r="N14">
-        <v>10.0621151135608</v>
+        <v>20.127891</v>
       </c>
       <c r="O14">
-        <v>0.1992633942288312</v>
+        <v>0.1841073870690167</v>
       </c>
       <c r="P14">
-        <v>0.1992633942288312</v>
+        <v>0.1533044232183457</v>
       </c>
       <c r="Q14">
-        <v>55.41176711119144</v>
+        <v>57.7622667958875</v>
       </c>
       <c r="R14">
-        <v>55.41176711119144</v>
+        <v>346.573600775325</v>
       </c>
       <c r="S14">
-        <v>0.04630619536808299</v>
+        <v>0.03948746835629641</v>
       </c>
       <c r="T14">
-        <v>0.04630619536808299</v>
+        <v>0.04108652239683516</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.50697010378191</v>
+        <v>5.739525</v>
       </c>
       <c r="H15">
-        <v>5.50697010378191</v>
+        <v>17.218575</v>
       </c>
       <c r="I15">
-        <v>0.2323868643676</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J15">
-        <v>0.2323868643676</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.25849539957401</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N15">
-        <v>5.25849539957401</v>
+        <v>16.668628</v>
       </c>
       <c r="O15">
-        <v>0.1041357239536693</v>
+        <v>0.1016439509105532</v>
       </c>
       <c r="P15">
-        <v>0.1041357239536693</v>
+        <v>0.1269568879015276</v>
       </c>
       <c r="Q15">
-        <v>28.95837695632878</v>
+        <v>31.8900023739</v>
       </c>
       <c r="R15">
-        <v>28.95837695632878</v>
+        <v>287.0100213651</v>
       </c>
       <c r="S15">
-        <v>0.02419977435824317</v>
+        <v>0.02180065862150771</v>
       </c>
       <c r="T15">
-        <v>0.02419977435824317</v>
+        <v>0.03402522189962742</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.50697010378191</v>
+        <v>5.739525</v>
       </c>
       <c r="H16">
-        <v>5.50697010378191</v>
+        <v>17.218575</v>
       </c>
       <c r="I16">
-        <v>0.2323868643676</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J16">
-        <v>0.2323868643676</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.01262011233509</v>
+        <v>3.038619333333333</v>
       </c>
       <c r="N16">
-        <v>3.01262011233509</v>
+        <v>9.115857999999999</v>
       </c>
       <c r="O16">
-        <v>0.05965991268544488</v>
+        <v>0.05558776781505795</v>
       </c>
       <c r="P16">
-        <v>0.05965991268544488</v>
+        <v>0.06943108708360662</v>
       </c>
       <c r="Q16">
-        <v>16.59040889268144</v>
+        <v>17.44023162915</v>
       </c>
       <c r="R16">
-        <v>16.59040889268144</v>
+        <v>156.96208466235</v>
       </c>
       <c r="S16">
-        <v>0.01386418003741534</v>
+        <v>0.01192249945827215</v>
       </c>
       <c r="T16">
-        <v>0.01386418003741534</v>
+        <v>0.0186079556911039</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.50697010378191</v>
+        <v>5.739525</v>
       </c>
       <c r="H17">
-        <v>5.50697010378191</v>
+        <v>17.218575</v>
       </c>
       <c r="I17">
-        <v>0.2323868643676</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J17">
-        <v>0.2323868643676</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.5750933366117</v>
+        <v>3.676304</v>
       </c>
       <c r="N17">
-        <v>3.5750933366117</v>
+        <v>11.028912</v>
       </c>
       <c r="O17">
-        <v>0.07079875601681765</v>
+        <v>0.06725341701337455</v>
       </c>
       <c r="P17">
-        <v>0.07079875601681765</v>
+        <v>0.08400189532454698</v>
       </c>
       <c r="Q17">
-        <v>19.68793212295055</v>
+        <v>21.1002387156</v>
       </c>
       <c r="R17">
-        <v>19.68793212295055</v>
+        <v>189.9021484404</v>
       </c>
       <c r="S17">
-        <v>0.01645270091187501</v>
+        <v>0.01442455524705752</v>
       </c>
       <c r="T17">
-        <v>0.01645270091187501</v>
+        <v>0.02251302135433484</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.50697010378191</v>
+        <v>5.739525</v>
       </c>
       <c r="H18">
-        <v>5.50697010378191</v>
+        <v>17.218575</v>
       </c>
       <c r="I18">
-        <v>0.2323868643676</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J18">
-        <v>0.2323868643676</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.68159340202098</v>
+        <v>9.695570333333334</v>
       </c>
       <c r="N18">
-        <v>8.68159340202098</v>
+        <v>29.086711</v>
       </c>
       <c r="O18">
-        <v>0.1719244660866474</v>
+        <v>0.1773684207862488</v>
       </c>
       <c r="P18">
-        <v>0.1719244660866474</v>
+        <v>0.2215394277112148</v>
       </c>
       <c r="Q18">
-        <v>47.80927531811982</v>
+        <v>55.64796831742501</v>
       </c>
       <c r="R18">
-        <v>47.80927531811982</v>
+        <v>500.831714856825</v>
       </c>
       <c r="S18">
-        <v>0.03995298758194977</v>
+        <v>0.03804209062278271</v>
       </c>
       <c r="T18">
-        <v>0.03995298758194977</v>
+        <v>0.05937392064333873</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.50697010378191</v>
+        <v>5.739525</v>
       </c>
       <c r="H19">
-        <v>5.50697010378191</v>
+        <v>17.218575</v>
       </c>
       <c r="I19">
-        <v>0.2323868643676</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J19">
-        <v>0.2323868643676</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.9066384759812</v>
+        <v>22.6328045</v>
       </c>
       <c r="N19">
-        <v>19.9066384759812</v>
+        <v>45.265609</v>
       </c>
       <c r="O19">
-        <v>0.3942177470285897</v>
+        <v>0.4140390564057488</v>
       </c>
       <c r="P19">
-        <v>0.3942177470285897</v>
+        <v>0.3447662787607582</v>
       </c>
       <c r="Q19">
-        <v>109.6252629540232</v>
+        <v>129.9015472478625</v>
       </c>
       <c r="R19">
-        <v>109.6252629540232</v>
+        <v>779.409283487175</v>
       </c>
       <c r="S19">
-        <v>0.09161102611003372</v>
+        <v>0.08880335764020114</v>
       </c>
       <c r="T19">
-        <v>0.09161102611003372</v>
+        <v>0.09239946986919212</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.72988150117391</v>
+        <v>6.327592</v>
       </c>
       <c r="H20">
-        <v>5.72988150117391</v>
+        <v>12.655184</v>
       </c>
       <c r="I20">
-        <v>0.2417934308997393</v>
+        <v>0.2364561384787094</v>
       </c>
       <c r="J20">
-        <v>0.2417934308997393</v>
+        <v>0.1969771980923172</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.0621151135608</v>
+        <v>10.0639455</v>
       </c>
       <c r="N20">
-        <v>10.0621151135608</v>
+        <v>20.127891</v>
       </c>
       <c r="O20">
-        <v>0.1992633942288312</v>
+        <v>0.1841073870690167</v>
       </c>
       <c r="P20">
-        <v>0.1992633942288312</v>
+        <v>0.1533044232183457</v>
       </c>
       <c r="Q20">
-        <v>57.65472725187445</v>
+        <v>63.68054103423599</v>
       </c>
       <c r="R20">
-        <v>57.65472725187445</v>
+        <v>254.722164136944</v>
       </c>
       <c r="S20">
-        <v>0.0481805797433164</v>
+        <v>0.04353332181174475</v>
       </c>
       <c r="T20">
-        <v>0.0481805797433164</v>
+        <v>0.03019747574070851</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.72988150117391</v>
+        <v>6.327592</v>
       </c>
       <c r="H21">
-        <v>5.72988150117391</v>
+        <v>12.655184</v>
       </c>
       <c r="I21">
-        <v>0.2417934308997393</v>
+        <v>0.2364561384787094</v>
       </c>
       <c r="J21">
-        <v>0.2417934308997393</v>
+        <v>0.1969771980923172</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.25849539957401</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N21">
-        <v>5.25849539957401</v>
+        <v>16.668628</v>
       </c>
       <c r="O21">
-        <v>0.1041357239536693</v>
+        <v>0.1016439509105532</v>
       </c>
       <c r="P21">
-        <v>0.1041357239536693</v>
+        <v>0.1269568879015276</v>
       </c>
       <c r="Q21">
-        <v>30.13055551402723</v>
+        <v>35.15742572792533</v>
       </c>
       <c r="R21">
-        <v>30.13055551402723</v>
+        <v>210.944554367552</v>
       </c>
       <c r="S21">
-        <v>0.02517933397398586</v>
+        <v>0.02403433613202891</v>
       </c>
       <c r="T21">
-        <v>0.02517933397398586</v>
+        <v>0.02500761205736331</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.72988150117391</v>
+        <v>6.327592</v>
       </c>
       <c r="H22">
-        <v>5.72988150117391</v>
+        <v>12.655184</v>
       </c>
       <c r="I22">
-        <v>0.2417934308997393</v>
+        <v>0.2364561384787094</v>
       </c>
       <c r="J22">
-        <v>0.2417934308997393</v>
+        <v>0.1969771980923172</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.01262011233509</v>
+        <v>3.038619333333333</v>
       </c>
       <c r="N22">
-        <v>3.01262011233509</v>
+        <v>9.115857999999999</v>
       </c>
       <c r="O22">
-        <v>0.05965991268544488</v>
+        <v>0.05558776781505795</v>
       </c>
       <c r="P22">
-        <v>0.05965991268544488</v>
+        <v>0.06943108708360662</v>
       </c>
       <c r="Q22">
-        <v>17.2619562517333</v>
+        <v>19.22714338464533</v>
       </c>
       <c r="R22">
-        <v>17.2619562517333</v>
+        <v>115.362860307872</v>
       </c>
       <c r="S22">
-        <v>0.0144253749753926</v>
+        <v>0.01314406892419969</v>
       </c>
       <c r="T22">
-        <v>0.0144253749753926</v>
+        <v>0.01367634099423251</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.72988150117391</v>
+        <v>6.327592</v>
       </c>
       <c r="H23">
-        <v>5.72988150117391</v>
+        <v>12.655184</v>
       </c>
       <c r="I23">
-        <v>0.2417934308997393</v>
+        <v>0.2364561384787094</v>
       </c>
       <c r="J23">
-        <v>0.2417934308997393</v>
+        <v>0.1969771980923172</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.5750933366117</v>
+        <v>3.676304</v>
       </c>
       <c r="N23">
-        <v>3.5750933366117</v>
+        <v>11.028912</v>
       </c>
       <c r="O23">
-        <v>0.07079875601681765</v>
+        <v>0.06725341701337455</v>
       </c>
       <c r="P23">
-        <v>0.07079875601681765</v>
+        <v>0.08400189532454698</v>
       </c>
       <c r="Q23">
-        <v>20.48486117442149</v>
+        <v>23.262151779968</v>
       </c>
       <c r="R23">
-        <v>20.48486117442149</v>
+        <v>139.572910679808</v>
       </c>
       <c r="S23">
-        <v>0.0171186741207399</v>
+        <v>0.01590248328648088</v>
       </c>
       <c r="T23">
-        <v>0.0171186741207399</v>
+        <v>0.01654645797547338</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.72988150117391</v>
+        <v>6.327592</v>
       </c>
       <c r="H24">
-        <v>5.72988150117391</v>
+        <v>12.655184</v>
       </c>
       <c r="I24">
-        <v>0.2417934308997393</v>
+        <v>0.2364561384787094</v>
       </c>
       <c r="J24">
-        <v>0.2417934308997393</v>
+        <v>0.1969771980923172</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.68159340202098</v>
+        <v>9.695570333333334</v>
       </c>
       <c r="N24">
-        <v>8.68159340202098</v>
+        <v>29.086711</v>
       </c>
       <c r="O24">
-        <v>0.1719244660866474</v>
+        <v>0.1773684207862488</v>
       </c>
       <c r="P24">
-        <v>0.1719244660866474</v>
+        <v>0.2215394277112148</v>
       </c>
       <c r="Q24">
-        <v>49.74450143495348</v>
+        <v>61.34961327663734</v>
       </c>
       <c r="R24">
-        <v>49.74450143495348</v>
+        <v>368.097679659824</v>
       </c>
       <c r="S24">
-        <v>0.04157020651069635</v>
+        <v>0.04193985186718324</v>
       </c>
       <c r="T24">
-        <v>0.04157020651069635</v>
+        <v>0.04363821573753054</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.72988150117391</v>
+        <v>6.327592</v>
       </c>
       <c r="H25">
-        <v>5.72988150117391</v>
+        <v>12.655184</v>
       </c>
       <c r="I25">
-        <v>0.2417934308997393</v>
+        <v>0.2364561384787094</v>
       </c>
       <c r="J25">
-        <v>0.2417934308997393</v>
+        <v>0.1969771980923172</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.9066384759812</v>
+        <v>22.6328045</v>
       </c>
       <c r="N25">
-        <v>19.9066384759812</v>
+        <v>45.265609</v>
       </c>
       <c r="O25">
-        <v>0.3942177470285897</v>
+        <v>0.4140390564057488</v>
       </c>
       <c r="P25">
-        <v>0.3942177470285897</v>
+        <v>0.3447662787607582</v>
       </c>
       <c r="Q25">
-        <v>114.0626795540815</v>
+        <v>143.211152691764</v>
       </c>
       <c r="R25">
-        <v>114.0626795540815</v>
+        <v>572.844610767056</v>
       </c>
       <c r="S25">
-        <v>0.09531926157560822</v>
+        <v>0.0979020764570719</v>
       </c>
       <c r="T25">
-        <v>0.09531926157560822</v>
+        <v>0.06791109558700892</v>
       </c>
     </row>
   </sheetData>
